--- a/day_1/output.xlsx
+++ b/day_1/output.xlsx
@@ -1,43 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\dkayzee\vit\intro-python-august-2021\itp_week_4\day_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7236034C-6CAA-4A52-A8E7-2B8F0C0AB90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4590" windowWidth="28800" windowHeight="15435" xr2:uid="{B9C8922C-22A4-4A82-B087-2D280D427692}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7650" yWindow="4590" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,13 +419,1220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDF1B2C-A62F-460C-B79F-11C4A14BEEEE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>45190.08840899704</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3306.696988790899</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ADA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cardano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.40345857308366</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>USDT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tether</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9998634564364091</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>400.2883384866382</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>166.6889074335743</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.070834321612375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DOT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Polkadot</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>34.51998960672594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DOGE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dogecoin</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.236340316323783</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USD Coin</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.00022508761706</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LUNA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>36.88361498266803</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22.86463273970622</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BUSD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Binance USD</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9999762528254316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LTC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Litecoin</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>178.4869479775691</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>27.07468281435786</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AVAX</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Avalanche</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>54.56795766171979</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BCH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bitcoin Cash</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>614.9483973134774</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WBTC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Wrapped Bitcoin</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>45180.49724761523</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ICP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Internet Computer</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>55.74039376080152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MATIC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Polygon</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.254325144247519</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ATOM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>35.43910828255679</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FIL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Filecoin</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>78.2353242170058</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TRX</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TRON</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1077172869677812</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>XLM</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Stellar</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3195882597725565</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ALGO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Algorand</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.148204299477493</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VET</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VeChain</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1129064757048925</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ethereum Classic</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>55.76302016783078</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FTT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FTX Token</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>68.54017646182277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DAI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dai</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.000155091737563</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Theta Network</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6.148300275460075</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>XTZ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tezos</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7.050647701001851</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EGLD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Elrond</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>270.8034042654643</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>QNT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quant Network</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>409.520890709988</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>XMR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Monero</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>269.057307138367</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4.795814784202173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Crypto.com Chain</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1751188084565573</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AAVE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>333.5888777622912</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CAKE</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PancakeSwap</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>19.47698008639183</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GRT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>The Graph</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8416037321204702</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AXS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Axie Infinity</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>65.05507278556456</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MIOTA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IOTA</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.417797908638265</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HBAR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hedera Hashgraph</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4068829459458355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NEAR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NEAR Protocol</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>8.21750814520407</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NEO</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NEO</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>48.98002866893714</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>KSM</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kusama</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>401.5746143914844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>KLAY</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Klaytn</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.338620707162068</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FTM</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Fantom</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.290966750217818</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>WAVES</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Waves</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29.75662863873853</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Unus Sed Leo</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3.043753649813588</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BSV</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Bitcoin SV</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>150.9117975057306</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MKR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2818.68758436847</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MIR COIN</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3.496539296531025</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BTT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BitTorrent</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.003959130122645735</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SHIB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Shiba Inu</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>6.500443360483343e-06</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Huobi Token</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>14.23219146499576</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TerraUSD</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1.004764586052967</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Amp</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.050524281304263</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>COMP</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Compound</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>384.8744477688927</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dash</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>200.0199610467774</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ONE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Harmony</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1838456480068034</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RUNE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>THORChain</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8.535081424016676</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CHZ</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Chiliz</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.3215513535982198</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HNT</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Helium</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>19.61726259914323</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Stacks</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.470552083372817</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Arweave</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>54.68889558143293</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>DCR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Decred</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>135.7430112140588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Revain</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01962959778454331</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HOT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Holo</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.009587597020670292</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TFUEL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Theta Fuel</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.3002747607059066</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>XEM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1766737903099399</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CELO</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Celo</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5.342306380854927</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MANA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Decentraland</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.823572447802761</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>XDCE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>XinFin</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1175804170953693</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SNX</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Synthetix</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>12.51783001316084</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SUSHI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SushiSwap</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>11.24568550057712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ZEC</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Zcash</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>128.3671090143976</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TUSD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TrueUSD</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1.000731241606016</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ENJ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Enjin Coin</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.642208797558251</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Celsius Network</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5.258972383779446</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ICX</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1.856312522707506</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>